--- a/biology/Médecine/Virus_Naples/Virus_Naples.xlsx
+++ b/biology/Médecine/Virus_Naples/Virus_Naples.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le virus Naples  (nom vernaculaire) ou Virus de la fièvre à phlébotomes de Naples dans les pays francophones (nomenclature officielle Naples phlebovirus)  est un virus à ARN enveloppé et une espèce antigénique du genre phlebovirus dans la famille Phenuiviridae de l'ordre Bunyavirales.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le virus Naples est un virus à ARN à simple brin à polarité négative. Son nom officiel est Naples Phlebovirus mais il est internationalement connu aussi sous le nom de Sandfly fever Naples virus (SFNV). Son genome est composé de trois parties et il fait partie du sérogroupe Uukuniemi (UUK). Le sérogroupe SFNV se compose de deux principaux sérocomplexes associés à la maladie chez l'homme, les sérocomplexes de Naples et de Sicile. La fièvre du phlébotome provoque chez l'homme des myalgies, de la fièvre et une élévation des enzymes hépatiques. Elle est difficile à diagnostiquer en dehors des zones endémiques[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le virus Naples est un virus à ARN à simple brin à polarité négative. Son nom officiel est Naples Phlebovirus mais il est internationalement connu aussi sous le nom de Sandfly fever Naples virus (SFNV). Son genome est composé de trois parties et il fait partie du sérogroupe Uukuniemi (UUK). Le sérogroupe SFNV se compose de deux principaux sérocomplexes associés à la maladie chez l'homme, les sérocomplexes de Naples et de Sicile. La fièvre du phlébotome provoque chez l'homme des myalgies, de la fièvre et une élévation des enzymes hépatiques. Elle est difficile à diagnostiquer en dehors des zones endémiques,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Réservoir naturel</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mouches des sables de la sous-famille des Phlébotomes (famille des Psychodidae) sont le réservoir naturel ce qui le différencie du virus Uukuniemi dont le réservoir sont les tiques. Ces Psychodidae  ont une large distribution géographique et transmettent le virus à l'homme par piqûre[3],[4],[5],[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mouches des sables de la sous-famille des Phlébotomes (famille des Psychodidae) sont le réservoir naturel ce qui le différencie du virus Uukuniemi dont le réservoir sont les tiques. Ces Psychodidae  ont une large distribution géographique et transmettent le virus à l'homme par piqûre.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon la nomenclature officielle de l'ICTV, son nom est Naples Phlebovirus[7].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon la nomenclature officielle de l'ICTV, son nom est Naples Phlebovirus.
 </t>
         </is>
       </c>
